--- a/experiments/00_general/results/statistics/stats_cortisol_features_condition.xlsx
+++ b/experiments/00_general/results/statistics/stats_cortisol_features_condition.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="66">
   <si>
     <t>parameter</t>
   </si>
@@ -155,58 +155,64 @@
     <t>two-sided</t>
   </si>
   <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.416</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.206</t>
+  </si>
+  <si>
+    <t>5.201</t>
+  </si>
+  <si>
+    <t>7.322</t>
+  </si>
+  <si>
     <t>0.201</t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.487</t>
-  </si>
-  <si>
-    <t>0.205</t>
-  </si>
-  <si>
-    <t>4.515</t>
-  </si>
-  <si>
-    <t>7.222</t>
-  </si>
-  <si>
-    <t>0.911</t>
-  </si>
-  <si>
-    <t>1.175</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>7.506</t>
-  </si>
-  <si>
-    <t>8.32</t>
-  </si>
-  <si>
-    <t>1.093</t>
-  </si>
-  <si>
-    <t>1.559</t>
-  </si>
-  <si>
-    <t>10.195</t>
-  </si>
-  <si>
-    <t>32.963</t>
-  </si>
-  <si>
-    <t>0.233</t>
-  </si>
-  <si>
-    <t>7.992</t>
-  </si>
-  <si>
-    <t>65.933</t>
+    <t>0.954</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>0.212</t>
+  </si>
+  <si>
+    <t>8.564</t>
+  </si>
+  <si>
+    <t>8.414</t>
+  </si>
+  <si>
+    <t>1.189</t>
+  </si>
+  <si>
+    <t>1.458</t>
+  </si>
+  <si>
+    <t>0.199</t>
+  </si>
+  <si>
+    <t>12.512</t>
+  </si>
+  <si>
+    <t>32.084</t>
+  </si>
+  <si>
+    <t>0.221</t>
+  </si>
+  <si>
+    <t>9.935</t>
+  </si>
+  <si>
+    <t>69.542</t>
   </si>
   <si>
     <t>Pairwise t-Tests</t>
@@ -652,10 +658,10 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>0.9545</v>
+        <v>0.9538</v>
       </c>
       <c r="D3">
-        <v>0.08690000000000001</v>
+        <v>0.0764</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -667,10 +673,10 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>0.9808</v>
+        <v>0.9817</v>
       </c>
       <c r="D4">
-        <v>0.2718</v>
+        <v>0.293</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -699,10 +705,10 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.985</v>
+        <v>0.9843</v>
       </c>
       <c r="D6">
-        <v>0.8384</v>
+        <v>0.8051</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -714,10 +720,10 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.9891</v>
+        <v>0.9901</v>
       </c>
       <c r="D7">
-        <v>0.7364000000000001</v>
+        <v>0.7862</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -746,10 +752,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>0.9422</v>
+        <v>0.9425</v>
       </c>
       <c r="D9">
-        <v>0.031</v>
+        <v>0.0291</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -761,10 +767,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>0.9453</v>
+        <v>0.9487</v>
       </c>
       <c r="D10">
-        <v>0.0019</v>
+        <v>0.0025</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -793,10 +799,10 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>0.9681999999999999</v>
+        <v>0.9693000000000001</v>
       </c>
       <c r="D12">
-        <v>0.2736</v>
+        <v>0.2854</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -808,10 +814,10 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>0.9668</v>
+        <v>0.9664</v>
       </c>
       <c r="D13">
-        <v>0.0354</v>
+        <v>0.0303</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -840,10 +846,10 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.9434</v>
+        <v>0.9426</v>
       </c>
       <c r="D15">
-        <v>0.0343</v>
+        <v>0.0293</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -855,10 +861,10 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>0.9911</v>
+        <v>0.9921</v>
       </c>
       <c r="D16">
-        <v>0.8594000000000001</v>
+        <v>0.9045</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -887,10 +893,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>0.9899</v>
+        <v>0.9888</v>
       </c>
       <c r="D18">
-        <v>0.966</v>
+        <v>0.9425</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -902,10 +908,10 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>0.9617</v>
+        <v>0.9633</v>
       </c>
       <c r="D19">
-        <v>0.0172</v>
+        <v>0.0192</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -934,10 +940,10 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9857</v>
+        <v>0.9846</v>
       </c>
       <c r="D21">
-        <v>0.8602</v>
+        <v>0.8157</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -949,10 +955,10 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9494</v>
+        <v>0.9486</v>
       </c>
       <c r="D22">
-        <v>0.0032</v>
+        <v>0.0025</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1023,10 +1029,10 @@
         <v>24</v>
       </c>
       <c r="C3">
-        <v>0.8257</v>
+        <v>0.7907999999999999</v>
       </c>
       <c r="D3">
-        <v>0.4398</v>
+        <v>0.4552</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1040,10 +1046,10 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>0.5147</v>
+        <v>0.6374</v>
       </c>
       <c r="D4">
-        <v>0.5987</v>
+        <v>0.53</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1057,10 +1063,10 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>0.5484</v>
+        <v>0.4521</v>
       </c>
       <c r="D5">
-        <v>0.5789</v>
+        <v>0.6371</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1074,10 +1080,10 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>3.7005</v>
+        <v>3.9394</v>
       </c>
       <c r="D6">
-        <v>0.0268</v>
+        <v>0.0213</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -1091,10 +1097,10 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>2.3434</v>
+        <v>2.418</v>
       </c>
       <c r="D7">
-        <v>0.0992</v>
+        <v>0.0922</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1108,10 +1114,10 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>2.5408</v>
+        <v>2.7363</v>
       </c>
       <c r="D8">
-        <v>0.0819</v>
+        <v>0.0677</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1125,10 +1131,10 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>3.6226</v>
+        <v>3.8989</v>
       </c>
       <c r="D9">
-        <v>0.0289</v>
+        <v>0.0221</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1190,16 +1196,16 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F3">
-        <v>1.1474</v>
+        <v>1.1327</v>
       </c>
       <c r="G3">
-        <v>0.32</v>
+        <v>0.3246</v>
       </c>
       <c r="H3">
-        <v>0.0139</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1216,16 +1222,16 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F4">
-        <v>5.4253</v>
+        <v>5.5918</v>
       </c>
       <c r="G4">
-        <v>0.0052</v>
+        <v>0.0045</v>
       </c>
       <c r="H4">
-        <v>0.0624</v>
+        <v>0.0631</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1242,16 +1248,16 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F5">
-        <v>2.1584</v>
+        <v>2.2915</v>
       </c>
       <c r="G5">
-        <v>0.1188</v>
+        <v>0.1043</v>
       </c>
       <c r="H5">
-        <v>0.0258</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1268,16 +1274,16 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F6">
-        <v>6.5773</v>
+        <v>6.7641</v>
       </c>
       <c r="G6">
-        <v>0.0018</v>
+        <v>0.0015</v>
       </c>
       <c r="H6">
-        <v>0.0747</v>
+        <v>0.07539999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1294,16 +1300,16 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F7">
-        <v>3.1282</v>
+        <v>3.1495</v>
       </c>
       <c r="G7">
-        <v>0.0464</v>
+        <v>0.0454</v>
       </c>
       <c r="H7">
-        <v>0.037</v>
+        <v>0.0366</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1320,16 +1326,16 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F8">
-        <v>7.9848</v>
+        <v>8.172499999999999</v>
       </c>
       <c r="G8">
-        <v>0.0005</v>
+        <v>0.0004</v>
       </c>
       <c r="H8">
-        <v>0.0892</v>
+        <v>0.0896</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1346,16 +1352,16 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F9">
-        <v>8.8803</v>
+        <v>9.152200000000001</v>
       </c>
       <c r="G9">
         <v>0.0002</v>
       </c>
       <c r="H9">
-        <v>0.0983</v>
+        <v>0.0993</v>
       </c>
     </row>
   </sheetData>
@@ -1373,7 +1379,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1441,22 +1447,22 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>-0.0255</v>
+        <v>-0.1181</v>
       </c>
       <c r="I3">
-        <v>69.6073</v>
+        <v>71.62520000000001</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
-        <v>0.9797</v>
+        <v>0.9063</v>
       </c>
       <c r="L3" t="s">
         <v>45</v>
       </c>
       <c r="M3">
-        <v>-0.0052</v>
+        <v>-0.0236</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1483,25 +1489,25 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>-1.1454</v>
+        <v>-1.1884</v>
       </c>
       <c r="I4">
-        <v>84</v>
+        <v>84.8793</v>
       </c>
       <c r="J4" t="s">
         <v>44</v>
       </c>
       <c r="K4">
-        <v>0.2553</v>
+        <v>0.238</v>
       </c>
       <c r="L4" t="s">
         <v>46</v>
       </c>
       <c r="M4">
-        <v>-0.2448</v>
+        <v>-0.2524</v>
       </c>
       <c r="N4">
-        <v>0.7659</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1525,25 +1531,25 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>-1.4084</v>
+        <v>-1.3553</v>
       </c>
       <c r="I5">
-        <v>73.6737</v>
+        <v>72.8472</v>
       </c>
       <c r="J5" t="s">
         <v>44</v>
       </c>
       <c r="K5">
-        <v>0.1632</v>
+        <v>0.1795</v>
       </c>
       <c r="L5" t="s">
         <v>47</v>
       </c>
       <c r="M5">
-        <v>-0.2797</v>
+        <v>-0.2688</v>
       </c>
       <c r="N5">
-        <v>0.4896</v>
+        <v>0.5385</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1569,22 +1575,22 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>-0.228</v>
+        <v>-0.2937</v>
       </c>
       <c r="I6">
-        <v>78.9229</v>
+        <v>80.6771</v>
       </c>
       <c r="J6" t="s">
         <v>44</v>
       </c>
       <c r="K6">
-        <v>0.8202</v>
+        <v>0.7697000000000001</v>
       </c>
       <c r="L6" t="s">
         <v>48</v>
       </c>
       <c r="M6">
-        <v>-0.0442</v>
+        <v>-0.0563</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1611,25 +1617,25 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-2.646</v>
+        <v>-2.7096</v>
       </c>
       <c r="I7">
-        <v>84</v>
+        <v>83.7092</v>
       </c>
       <c r="J7" t="s">
         <v>44</v>
       </c>
       <c r="K7">
-        <v>0.0097</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="L7" t="s">
         <v>49</v>
       </c>
       <c r="M7">
-        <v>-0.5655</v>
+        <v>-0.5766</v>
       </c>
       <c r="N7">
-        <v>0.0291</v>
+        <v>0.0246</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1653,25 +1659,25 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>-2.8514</v>
+        <v>-2.857</v>
       </c>
       <c r="I8">
-        <v>73.17359999999999</v>
+        <v>71.91289999999999</v>
       </c>
       <c r="J8" t="s">
         <v>44</v>
       </c>
       <c r="K8">
-        <v>0.0057</v>
+        <v>0.0056</v>
       </c>
       <c r="L8" t="s">
         <v>50</v>
       </c>
       <c r="M8">
-        <v>-0.5676</v>
+        <v>-0.5695</v>
       </c>
       <c r="N8">
-        <v>0.0171</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1697,22 +1703,22 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.2198</v>
+        <v>0.1688</v>
       </c>
       <c r="I9">
-        <v>76.2739</v>
+        <v>78.3685</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
       </c>
       <c r="K9">
-        <v>0.8266</v>
+        <v>0.8663999999999999</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M9">
-        <v>0.0431</v>
+        <v>0.0327</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1739,25 +1745,25 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1.7942</v>
+        <v>1.8261</v>
       </c>
       <c r="I10">
-        <v>84</v>
+        <v>82.18899999999999</v>
       </c>
       <c r="J10" t="s">
         <v>44</v>
       </c>
       <c r="K10">
-        <v>0.0764</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="L10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M10">
-        <v>0.3835</v>
+        <v>0.3872</v>
       </c>
       <c r="N10">
-        <v>0.2292</v>
+        <v>0.2145</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1781,25 +1787,25 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1.9925</v>
+        <v>2.079</v>
       </c>
       <c r="I11">
-        <v>92.28919999999999</v>
+        <v>91.1704</v>
       </c>
       <c r="J11" t="s">
         <v>44</v>
       </c>
       <c r="K11">
-        <v>0.0493</v>
+        <v>0.0404</v>
       </c>
       <c r="L11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M11">
-        <v>0.3653</v>
+        <v>0.3801</v>
       </c>
       <c r="N11">
-        <v>0.1479</v>
+        <v>0.1212</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1825,22 +1831,22 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>-0.3132</v>
+        <v>-0.3771</v>
       </c>
       <c r="I12">
-        <v>83.64400000000001</v>
+        <v>85.68089999999999</v>
       </c>
       <c r="J12" t="s">
         <v>44</v>
       </c>
       <c r="K12">
-        <v>0.7549</v>
+        <v>0.707</v>
       </c>
       <c r="L12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M12">
-        <v>-0.0594</v>
+        <v>-0.0707</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1867,25 +1873,25 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>-2.868</v>
+        <v>-2.923</v>
       </c>
       <c r="I13">
-        <v>84</v>
+        <v>77.09439999999999</v>
       </c>
       <c r="J13" t="s">
         <v>44</v>
       </c>
       <c r="K13">
-        <v>0.0052</v>
+        <v>0.0045</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M13">
-        <v>-0.613</v>
+        <v>-0.6234</v>
       </c>
       <c r="N13">
-        <v>0.0156</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1909,10 +1915,10 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>-2.9084</v>
+        <v>-2.9128</v>
       </c>
       <c r="I14">
-        <v>65.869</v>
+        <v>64.94889999999999</v>
       </c>
       <c r="J14" t="s">
         <v>44</v>
@@ -1921,10 +1927,10 @@
         <v>0.0049</v>
       </c>
       <c r="L14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M14">
-        <v>-0.6022</v>
+        <v>-0.6042999999999999</v>
       </c>
       <c r="N14">
         <v>0.0147</v>
@@ -1953,22 +1959,22 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>-0.06809999999999999</v>
+        <v>-0.1625</v>
       </c>
       <c r="I15">
-        <v>76.67619999999999</v>
+        <v>78.9953</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>0.9459</v>
+        <v>0.8714</v>
       </c>
       <c r="L15" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M15">
-        <v>-0.0133</v>
+        <v>-0.0314</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1995,25 +2001,25 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>-1.9089</v>
+        <v>-1.9618</v>
       </c>
       <c r="I16">
-        <v>84</v>
+        <v>82.47669999999999</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>0.0597</v>
+        <v>0.0532</v>
       </c>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M16">
-        <v>-0.408</v>
+        <v>-0.4177</v>
       </c>
       <c r="N16">
-        <v>0.1791</v>
+        <v>0.1596</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2037,25 +2043,25 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>-2.1474</v>
+        <v>-2.1127</v>
       </c>
       <c r="I17">
-        <v>68.4375</v>
+        <v>67.7816</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
       </c>
       <c r="K17">
-        <v>0.0353</v>
+        <v>0.0383</v>
       </c>
       <c r="L17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M17">
-        <v>-0.4382</v>
+        <v>-0.4309</v>
       </c>
       <c r="N17">
-        <v>0.1059</v>
+        <v>0.1149</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2081,22 +2087,22 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.0282</v>
+        <v>-0.08160000000000001</v>
       </c>
       <c r="I18">
-        <v>79.6233</v>
+        <v>81.36069999999999</v>
       </c>
       <c r="J18" t="s">
         <v>44</v>
       </c>
       <c r="K18">
-        <v>0.9776</v>
+        <v>0.9352</v>
       </c>
       <c r="L18" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="M18">
-        <v>0.0055</v>
+        <v>-0.0156</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -2123,25 +2129,25 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>-2.9947</v>
+        <v>-3.0765</v>
       </c>
       <c r="I19">
-        <v>84</v>
+        <v>80.82989999999999</v>
       </c>
       <c r="J19" t="s">
         <v>44</v>
       </c>
       <c r="K19">
-        <v>0.0036</v>
+        <v>0.0029</v>
       </c>
       <c r="L19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M19">
-        <v>-0.6401</v>
+        <v>-0.6554</v>
       </c>
       <c r="N19">
-        <v>0.0108</v>
+        <v>0.008699999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2165,10 +2171,10 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>-3.4179</v>
+        <v>-3.4077</v>
       </c>
       <c r="I20">
-        <v>67.8001</v>
+        <v>66.8248</v>
       </c>
       <c r="J20" t="s">
         <v>44</v>
@@ -2177,10 +2183,10 @@
         <v>0.0011</v>
       </c>
       <c r="L20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M20">
-        <v>-0.6999</v>
+        <v>-0.6989</v>
       </c>
       <c r="N20">
         <v>0.0033</v>
@@ -2209,22 +2215,22 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.5806</v>
+        <v>0.4862</v>
       </c>
       <c r="I21">
-        <v>85.0544</v>
+        <v>86.4546</v>
       </c>
       <c r="J21" t="s">
         <v>44</v>
       </c>
       <c r="K21">
-        <v>0.5631</v>
+        <v>0.6281</v>
       </c>
       <c r="L21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M21">
-        <v>0.1095</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -2251,25 +2257,25 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>-2.8943</v>
+        <v>-2.9839</v>
       </c>
       <c r="I22">
-        <v>84</v>
+        <v>77.62139999999999</v>
       </c>
       <c r="J22" t="s">
         <v>44</v>
       </c>
       <c r="K22">
-        <v>0.0048</v>
+        <v>0.0038</v>
       </c>
       <c r="L22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M22">
-        <v>-0.6186</v>
+        <v>-0.6363</v>
       </c>
       <c r="N22">
-        <v>0.0144</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2293,10 +2299,10 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>-3.6506</v>
+        <v>-3.6667</v>
       </c>
       <c r="I23">
-        <v>67.12949999999999</v>
+        <v>66.03879999999999</v>
       </c>
       <c r="J23" t="s">
         <v>44</v>
@@ -2305,10 +2311,10 @@
         <v>0.0005</v>
       </c>
       <c r="L23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M23">
-        <v>-0.7504</v>
+        <v>-0.7556</v>
       </c>
       <c r="N23">
         <v>0.0015</v>
